--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="userRegistration" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>First name</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>000050730</t>
+  </si>
+  <si>
+    <t>000051127</t>
+  </si>
+  <si>
+    <t>000051128</t>
+  </si>
+  <si>
+    <t>000051178</t>
+  </si>
+  <si>
+    <t>000051179</t>
+  </si>
+  <si>
+    <t>000052122</t>
+  </si>
+  <si>
+    <t>000052123</t>
   </si>
 </sst>
 </file>
@@ -733,22 +751,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="21.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="6" width="21.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="6" width="40.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="6" width="25.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="6" width="28.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="6" width="29.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="27.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="6" width="28.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="6" width="9.140625" collapsed="false"/>
+    <col min="10" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1063,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="18.85546875" collapsed="false"/>
+    <col min="1" max="1" style="2" width="18.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="2" width="38.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
@@ -1199,14 +1217,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="2" width="34.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="26.5703125" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="33.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="false"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1344,8 +1361,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" style="3" width="9.140625" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
@@ -1382,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1458,11 +1474,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1484,9 +1505,39 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userRegistration" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>First name</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Order IDs</t>
   </si>
   <si>
-    <t>000050520</t>
-  </si>
-  <si>
-    <t>000050521</t>
-  </si>
-  <si>
     <t>TC_REG_002</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Product 2</t>
   </si>
   <si>
-    <t>000050727</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address </t>
   </si>
   <si>
@@ -303,25 +294,13 @@
     <t>Alexandria Governorate</t>
   </si>
   <si>
-    <t>000050730</t>
-  </si>
-  <si>
-    <t>000051127</t>
-  </si>
-  <si>
-    <t>000051128</t>
-  </si>
-  <si>
-    <t>000051178</t>
-  </si>
-  <si>
-    <t>000051179</t>
-  </si>
-  <si>
-    <t>000052122</t>
-  </si>
-  <si>
-    <t>000052123</t>
+    <t>000054174</t>
+  </si>
+  <si>
+    <t>000054175</t>
+  </si>
+  <si>
+    <t>000054176</t>
   </si>
 </sst>
 </file>
@@ -789,57 +768,57 @@
         <v>3</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>12</v>
@@ -847,74 +826,74 @@
     </row>
     <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>12</v>
@@ -922,22 +901,22 @@
     </row>
     <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>12</v>
@@ -945,23 +924,23 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>12</v>
@@ -969,48 +948,48 @@
     </row>
     <row r="9" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="6" t="s">
@@ -1019,28 +998,28 @@
     </row>
     <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1085,19 +1064,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -1105,27 +1084,27 @@
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>4</v>
@@ -1137,19 +1116,19 @@
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1166,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,24 +1160,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1234,36 +1213,36 @@
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>12</v>
@@ -1271,19 +1250,19 @@
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>12</v>
@@ -1291,19 +1270,19 @@
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>12</v>
@@ -1311,16 +1290,16 @@
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>12</v>
@@ -1328,16 +1307,16 @@
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>12</v>
@@ -1366,10 +1345,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1422,39 +1401,39 @@
         <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="6">
         <v>12611</v>
@@ -1474,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,54 +1469,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>First name</t>
   </si>
@@ -301,6 +301,30 @@
   </si>
   <si>
     <t>000054176</t>
+  </si>
+  <si>
+    <t>000054816</t>
+  </si>
+  <si>
+    <t>000054817</t>
+  </si>
+  <si>
+    <t>000054818</t>
+  </si>
+  <si>
+    <t>000054819</t>
+  </si>
+  <si>
+    <t>000054865</t>
+  </si>
+  <si>
+    <t>000054866</t>
+  </si>
+  <si>
+    <t>000054890</t>
+  </si>
+  <si>
+    <t>000054891</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A26"/>
@@ -1484,6 +1508,46 @@
         <v>91</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
